--- a/500all/speech_level/speeches_CHRG-114hhrg20698.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20698.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20698.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20698.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg20698.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20698.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -52,13 +55,259 @@
     <t>REGULATION'S IMPACT ON SMALL BANKS AND RURAL COMMUNITIES"</t>
   </si>
   <si>
-    <t>400071</t>
-  </si>
-  <si>
-    <t>Chabot</t>
-  </si>
-  <si>
-    <t>Steve</t>
+    <t>412429</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Huelskamp</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. I call this hearing to order.    It has been just about 6 years since the passage of the Dodd-Frank Wall Street Reform, and in that time we have seen a steady stream of new rules and regulations imposed upon financial institutions. These hundreds of rules and thousands of pages of regulation have been touted as necessary to secure financial stability, and targeting just those large institutions which were blamed for the financial collapse. But as this Committee has learned, our small community banks have not been spared from the regulatory burden.    Across the country, community banks are seeing the costs of complying with regulations soar, and the result has been less capital available for the main street shop looking to expand, for the entrepreneur looking to start a business, and for our neighbors hoping to purchase a new home. The impact of regulation on community banks is felt especially hard in our country's rural areas, like my district in Kansas.    The rising cost of regulation is causing many small banks to be forced to merge with larger entities that may not understand the local community, or causing them to shut their doors entirely. In rural towns without many other alternatives for access to capital, the results of these top-down regulations can be devastating and impact the whole town and the entire county and region. Home mortgage lending, small business lending, agricultural lending, all areas where community banks play a leading role in providing capital, become much more difficult and much more costly to consumers.    Our rural communities are still feeling the harsh effects of the recession. During the so-called ``recovery,'' growth in business establishments was reserved for the big cities. From 2010-2014, a full half of all new business were started in just 20 of our Nation's counties, all near large metro areas. During that same time, most rural counties have actually seen a decrease in business establishments. More businesses are closing for good than opening up.    At today's hearing, we will hear about the impact financial regulations are having on our rural communities from those who see it every day, including from within my home district, Kansas's ``Big First'' District. Discussions of financial reform are often centered on big cities and large institutions on Wall Street, but today we will hear from those areas of rural America, form Main Street, which can too often be overlooked in these conversations.    I thank the witnesses for being here this morning, and I look forward to your testimony.    I now yield to Ranking Member Chu for her opening remarks.</t>
+  </si>
+  <si>
+    <t>412379</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Thank you, Mr. Chair.    Just 6 years ago, our nation was in the early stages of recovery from one of the worst economic downturns in history. We lost 4 million jobs, 7 million people faced foreclosure, and families saw over $16 trillion in wealth disappear as the bottom fell out of the housing and stock markets. After taking extraordinary steps to stem the losses and stabilize the economy, Congress enacted the Dodd-Frank Act in 2010 to address the many loopholes that caused the collapse. The bill established strong new standards for the regulation of large, leveraged financial institutions and made the protection of consumers seeking mortgages and credit products a top priority.    Dodd-Frank was directed primarily at the largest financial services firms and significant efforts were made to ensure that any new regulatory burden on the small banking community was properly mitigated. For example, many of the Dodd-Frank Act provisions only apply to institutions with over $10 billion in assets, leaving 98 percent of all banks in the U.S. largely exempt. Additionally, the Consumer Financial Protection Bureau has gone to great lengths to balance the burden of new regulations on small banks with the ultimate goal of protecting consumers.    Initially, there was significant concern that regulatory burdens would have a negative effect on access to capital for small businesses, but fortunately, it appears to be having less impact than originally feared. According to the PayNet Small Business Lending Index, access to credit continues to improve for small businesses. In fact, lending is up 70 percent since Dodd-Frank's enactment. Similarly, the Wells Fargo Gallup Small Business Index poll indicates small business owner optimism is at its highest point since 2008. Furthermore, data from federal regulators also points to a healthy small business lending market. The Federal Reserve has found that lending standards for small firms have eased considerably since the recession while loan and lease balances at community banks have increased $21 billion in this past quarter alone. SBA lending, too, has come roaring back to surpass prerecession levels. In 2015, the Agency made 63,000 loans totaling $23.5 billion.    Although the small business lending environment appears to be robust, critics of the act continue to point to the decreasing number of small financial institutions as proof of burdensome regulation. However, it is important to remember that the decline in the number of community banks is not something that started happening after Dodd-Frank was implemented. The sector has actually been consolidating for the past 30 years.    Experts can disagree on the reasons for consolidation in the community bank sector but I think we can all agree that things are improving. Revenue is up, lending has increased, asset quality is steady, and credit worthiness of borrowers is on the rebound. As both lenders and borrowers, small businesses have much at stake when it comes to financial regulatory reform. The Dodd-Frank Act has the potential to make the entire system more stable and safer for small firms and the real economy to grow and create jobs. It is my hope that the testimony today will add important perspectives on the interaction between Dodd-Frank and Main Street, and I want to thank the witnesses for being here today.    Thank you. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Thank you, Ms. Chu.    If Committee members have an opening statement prepared, I would ask they be submitted for the record. Let me explain the opening statements and timing for the witnesses.    You each have 5 minutes to deliver your testimony. The light will start out as green. When you have 1 minute remaining, the light will turn yellow. And finally, at the end of your 5 minutes, it will turn red. I ask that you try to adhere to that time limit.    With that, I would like to introduce our first witness this morning, Mr. Roger Beverage, who is visiting us today from Oklahoma City, or Edmond. Mr. Beverage is the former Executive Vice President of the Nebraska Bankers Association and is currently the President and CEO of the Oklahoma Bankers Association. He has held this position for over 25 years. Mr. Beverage is testifying today on behalf of the American Bankers Association, and Mr. Beverage, we welcome you here today. You have 5 minutes, and you may begin.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BEVERAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. Chairman Huelskamp, Ranking Member Chu, thank you so much for the opportunity to be here today to present about how the growing volume of bank regulation, particularly for smaller hometown banks in rural areas, is negatively impacting consumers.    Let me be clear. Banks are a resilient group. They have found ways to meet customers' needs despite the ups and downs of the economy, but it is a job that has become much more difficult because of new rules, guidances, and the seemingly ever-changing expectations of federal banking regulators. It is this cumulative impact of regulatory overload that often pushes small banks out of existence, either to merge or to sell. In fact, there are nearly 1,500 fewer community banks today than there were just 5 years ago.    When I came to Oklahoma in 1988, there were well over 400 banks in our state. Today in Oklahoma, there are 211 that are chartered by the State of Oklahoma or a national bank doing business in Oklahoma. But more frightening to me right now is the seeming lack of interest in granting new charters. This trend apparently will continue unless changes are made that provide relief to community banks, but particularly those that serve rural areas.    Let me also be clear about the kinds of banks I am talking about. These banks are very small. In Oklahoma, for example, out of the 211, 97 of them are under $100 million, 46 are under $50 million. Those are very, very small banks that had nothing to do with the financial crisis that led up to the issues of 2008 and Dodd-Frank. In Kansas, you have 156 banks that are under $100 million in total assets. These banks have a handful of full-time employees and they all perform a lot of different functions. There is no one functionality that you have in a small bank like that. These are the kinds of banks that serve rural America.    Regulations shape the way banks do business and can help or hinder the smooth functioning of the credit cycle, but every regulatory change that applies to America's hometown banks directly affects the cost of banking products and services for consumers. Even small changes can reduce credit availability. They can raise costs. What the ranking member talked about is driving consolidation. We have seen that considerably in our state. What that does is ultimately those three things limit consumer choice.    I believe Congress must take steps to ensure and enhance the banking industry's ability to serve their consumers and rural areas. When a bank reduces its product and service offerings or disappears, everyone in that community is impacted.    Importantly, in rural communities, local banks are in many instances the exclusive source of capital for farmers, ranchers, small business owners, and residents. Once that capital access system becomes dysfunctional in rural areas as it is today, then the community itself begins to encounter more difficult challenges in order to survive.    We ask for bipartisan support for legislation introduced by Congressman Tipton that would require regulators to tailor bank supervision and that would take into account the charter, the business model, and the scope of each bank's operations. Regulators should be empowered and directed to make sure that rules, regulations, and compliance requirements only apply to those segments of the industry where warranted. Representative Barr's American Jobs and Community Revitalization Act also contains provisions that will reduce regulatory requirements for smaller community banks in ways that make it easier for those banks to meet their customers' needs.    Additionally, Congress should help reduce needless impediments to mortgage lending that have constrained the ability of community banks to help homebuyers and dampen the growth of prosperity across our Nation's rural communities. In Oklahoma, approximately 25 percent of the state's banks are no longer in the home mortgage business. They have concluded that the litigation and regulatory risk are simply too great given the limited number of those kinds of loans that they make in a given year. That means that the consumer is denied credit or asked to find some other source for it.    We encourage Congress to support legislative efforts like H.R. 1210 that would treat loans held in portfolio, which is one of the most traditional and lowest-risk lending in which a bank can engage as qualified mortgages. This would provide a much needed direction to the current restricted standards.    There is additional legislation introduced by Representatives Luetkemeyer, Neugebauer, and Barr that contain measures to help America's hometown banks get back to serving their communities by ensuring that costs and benefits are considered before changing or issuing new regulations and that streamline currency transaction reporting and require a review and reconciliation of existing regulations.    ABA stands ready to help Congress address these important issues that will in turn help community banks, particularly those in rural areas, better serve their customers and their communities.    Thank you very much, and I will be happy to try and answer some of the questions you may have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Thank you, Mr. Beverage. I appreciate your testimony.    Our second witness this morning is Mr. Shan Hanes, who is visiting us today from Elkhart, Kansas, which is located in my home district, Kansas's ``Big First.'' Elkhart is a community in southwest Kansas with a population just over 2,000 folks, and I might add, 26 graduates in the senior class. Where I come from that is actually kind of a big school. For the past 9 years, Mr. Hanes has served as president and CEO of the First National Bank of Elkhart--and by the way, when you are in Elkhart, you are not quite in Oklahoma or Colorado, but you can see them from there--and previously has served as President of the Kansas Ag Bankers Division of the Kansas Bankers Association.    Mr. Hanes, we welcome you here today. Thank you for joining us, and you may begin.</t>
+  </si>
+  <si>
+    <t>HANES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. Thank you, Chairman Huelskamp, Ranking Member Chu, and members of the Subcommittee. My name is Shan Hanes, president and CEO of First National Bank of Elkhart, Kansas. I appreciate the opportunity to present the views of rural banks and the impact of overregulation in rural America.    First National Bank is a $78 million bank with a main bank location in Elkhart, Kansas, the county seat, and one branch serving Rolla, Kansas. We have 20 employees, and we are a typical agriculture (ag) bank. Despite our small size, we are the largest lender in the county and represent an average-size bank in rural Kansas.    I have been very proud to be an Ag banker in a rural community for 20-plus years. There are days we can still get in our unlocked pickup truck to go to work in the morning and have cash lying in the seat. We simply take it to work as it is a payment from a customer who will call us eventually and tell us which of their loans to apply it to.    One of my loan officer's customers actually won a multimillion dollar lottery, and he did not feel safe holding the ticket in his possession over the weekend, so he took it to his loan officer's house. He did not want us to put it in the vault. He just wanted him to hold the lottery ticket for him over the weekend. That is community banking. That is what it means to be a community rural banker.    When I started in lending, a typical consumer loan was one page and the consumer would actually read the note and disclosure. Now a typical consumer loan is closer to 20 pages with many documents to sign and customers have no interest in reading that many documents. We made a simple loan so complicated that customers simply will not read the documents.    The topic of today's hearing is very timely. Increased regulations made it much more difficult to lend and be a main driving force in our local community. Despite this, the banking industry is well-positioned to meet the needs of rural America.    In 2015, farm banks, like mine, increased ag lending 8 percent and now provide over $100 billion in total farm loans. Interest rates continue to be near record lows and banks have the people, capital, and liquidity to help rural America through any turbulence in the rural economy. Rural banks are healthy and continue to be forward-looking, growing capital, and increasing reserves.    I would like to thank Congress for its commitment to the guaranteed lending programs, both SBA and USDA. However, I believe Congress needs to consider reforms to these programs, specifically, to allow greater flexibility with SBA loans for agriculture and to raise the cap on USDA farm service agency guaranteed loans simply due to the rising cost of agriculture. There needs to be an additional in-depth look and discussion in modernizing these programs, providing something as simple as electronic signatures. Guaranteed loans have allowed our customers to continue to get access from banks like mine as they grow, ensuring credit for bank customers across the country.    We remain concerned, however, with competition on an uneven playing field. Overburdensome regulations and a lack of appraisers in rural America means small, rural banks simply cannot survive. The result would be devastating to the local residents in those communities. Every day my bank competes with other banks in parts of Kansas, but we also compete with Farm Credit System, which is a 300 billion GSE. This lender has a huge tax advantage over my bank. Currently, with the combined State and Federal tax rate of 38 percent, we have to work until July just to pay our tax bill. There needs to be serious discussion on leveling the playing field between banks and Farm Credit.    In addition to unfair competition, banks have to deal with ever-changing and expanding regulations. Due to the Dodd-Frank Act, a bank like mine has to outsource much of our compliance, and we are more than paying a full-time teller's salary for compliance and outside audit teams. The impact is one fewer bank employee serving our customers, one less paying job in a rural community.    Due to regulations, many banks in rural Kansas have moved out of the mortgage-lending business completely, often due to increased compliance. What used to be a staple for every community bank is no longer even a product offering. When you consider a bank like mine where we keep our loans in our portfolio, we are taking the risk, and any adverse decision affects our bottom line. This is why I believe that if the loan is held in portfolio, it should automatically be a qualified mortgage.    Through regulation, our loan closings have become much slower. We have had to hire an outside consultant to assist us in completing a pre- and post-closing review. In my area, there are many more houses on the market now. I believe it is partially due to the increased time it takes to close these loans. This only further slows down an already slowing rural economy.    On a real estate loan, the bank no longer makes a credit decision; the bank makes a compliance decision to determine if a loan will be made.    Lastly, there are a lack of rural appraisers, not just in Kansas, but across rural America. Increased regulations have made it harder for someone to become an appraiser, and it is especially hard for young people to get into that line of work. Lenders need appraisers or they cannot close a loan. Congress should examine the current rules of becoming an appraiser, especially in rural areas, so banks can continue to lend effectively.    Banks like mine are proud of the work we do to support our rural communities. However, it will be very difficult to simply survive to continue lending to our customers and provide for our community and your constituents if there are no reforms to the many obstacles that stand in our way. The lending decision should be made locally to customers by their community bank, not by rules and regulations from Washington, D.C. that does not understand my business or my customers.    Thank you. I would be happy to answer any questions you might have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Thank you, Mr. Hanes. I appreciate your testimony and you joining us today.    I now yield to Ranking Member Chu for the introduction of our final witness, Mr. Marcus Stanley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Yes, I am honored to introduce Mr. Marcus Stanley. Marcus Stanley is the Policy Director of Americans for Financial Reform, a coalition of more than 250 national, state, and local groups, who have come together to improve regulation of the financial sector. Members of AFR include consumer, labor, civil rights, investor, retiree, community, faith-based, and business groups, along with prominent, independent experts. Mr. Stanley has a Ph.D. in public policy from Harvard University, previously worked as an economic and policy advisor to Senator Barbara Boxer, as a senior economic economist at the U.S. Joint Economic Committee, and as an assistant professor of Economics at Case Western Reserve University.    Dr. Stanley, thank you for joining us today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Thank you for the introduction. Mr. Stanley, you may begin. Thank you.</t>
+  </si>
+  <si>
+    <t>STANLEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. Thank you. Chairman Huelskamp, Ranking Member Chu, and members of the Committee, thank you for the opportunity to testify here today.    Today's hearing asks us to consider the impact of the Dodd-Frank Act on small banks. I want to make two broad points. First, community banks face economic headwinds that are unrelated to Dodd-Frank, connected both to long-term trends and to the effects of the financial crisis itself.    Second, the big picture is that community banks have returned to profitability under Dodd-Frank. In 2015, just over 95 percent of community banks earned a profit. That is compared to 78 percent in 2010, the year Dodd-Frank was passed.    Consolidation in the banking industry is not a new phenomenon. The number of FDIC insured banks has declined by 2/3 over the past 30 years with the decline concentrated among banks with less than $1 billion in assets. The number of community banks has declined every single year since 1984.    The causes of these long-term trends include changes in economies of scale in banking and deregulatory measures that assisted the expansion of large regional and global banks. The catastrophic effect of the financial crisis made things worse. Over 400 community banks failed between 2008 and 2011. Facing huge losses in the Deposit Insurance Fund and historically devastating recession, FDIC's supervisors cracked down on risks in existing banks and made it more difficult to open new banks, a regulatory response that would have occurred even if the Dodd-Frank Act had never passed.    When we look at the well-being of community banks since the passage of Dodd-Frank, as well as specific provisions of the law, we see a better picture. Not only have more than 95 percent of community banks returned to profitability today, but return on equity has been steadily increasing. Average community bank ROE has gone up every year since the passage of Dodd-Frank and reached almost 9 percent in 2015, a level that some larger banks, such as Citigroup or Bank of America might envy.    One reason for this is that in drafting Dodd-Frank, Congress made major efforts to shield small banks from additional regulations targeted at the large banks and nonbanks who were at the center of the 2008 crisis. Smaller banks are exempted from numerous provisions in the law, including new heightened prudential standards in Title I, new over-the-counter derivatives regulation, and direct CFPB examination .    As detailed in my written testimony, regulators have continued this practice in implementing the law with efforts to shield small banks from compliance burdens in areas ranging from the Volcker Rule to new mortgage regulations. The Dodd-Frank Act was major legislation passed in response to the worst financial and economic crisis since the 1930s, so it clearly does have impacts throughout the financial system. But, those impacts are concentrated on the large banks and nonbanks that are, in fact, the major competitors of community banks.    At the same time, I do not wish to imply that there are not real issues with small business access to credit and issues in rural areas that this Committee can and should address. Although small business lending has increased significantly in recent years, it has still lagged during the recovery, and the economic expansion has been more concentrated in urban areas. Helping small banks to address this issue should be high on our agenda, but looking at the Dodd-Frank Act as it is caused seems misguided. Instead, I would urge the Committee to look at credit guarantees from entities like the Small Business Administration, the Department of Agriculture, and other forms of credit that are under the jurisdiction of the Committee.    We must also make sure that nonbank financial entities are competing on a level playing field with regulated banks. Online marketplace lenders are a rapidly growing provider of small business lending and are subject neither to consumer protection laws nor risk controls. The evidence indicates that they often provide a substandard and even exploitative product. Just 15 percent of small business borrowers from online lenders express satisfaction with their experience, while 75 percent of small business borrowers from community banks did. That is from a joint study by seven regional Federal Reserve banks that cover pretty much the whole country. Congress should consider expanding oversight of online marketplace lenders.    Thank you for the opportunity to testify, and I look forward to taking questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Thank you, Mr. Stanley. We appreciate your testimony. We will now begin our questioning. I recognize myself for 5 minutes.    I will first start with Mr. Hanes. I cannot imagine you got into this business to navigate your way through miles of red tape. What brought you in this line of work, and what do you see as your role in the community of Elkhart, Kansas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. I have been a community lender for 20-plus years, do not want to give the exact number. I enjoy being part of production agriculture. Growing up on a farm myself, that was my lifestyle and that was my livelihood. Now I get the opportunity to help a number of customers continue their lifestyle and continue their goals. Being in a small community, being with the bank and being a leader in that community, you are on a number of boards, and we understand how vital it is to keep our community together, to keep our community whole. We need new businesses. We need people coming to town. The bank is the lifeblood of that. That is who is going to be able to bring those individuals to town. That is who is going to be able to fund those loans to allow them to realize their dreams. That is what I enjoy doing, seeing somebody be able to start their own business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. You talked a little bit about home mortgage lending, perhaps small business loans as well. I would like for you to explain how the regulations have restricted your ability to meet those needs. Secondly, who will take care of those needs if the First National Bank of Elkhart were not there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. That is a huge challenge from our side. I brought a couple things I would like to show. When I came to banking 20-plus years ago, this was a real estate note. We had a note, green, nice pretty form being a bank. A mortgage, that was it. A customer would actually read that, understand it, ask us questions. This is a real estate note, now. It is a half-inch thick, lots of pages to sign. We could not get a customer to read this if we forced them to. It is just flat too thick. We have taken it from something simple to something overly complex.    In our local market we do not have a lot of secondary mortgage options. We were just informed some time ago that our secondary mortgage lender that has been a big supporter of southwest Kansas now will no longer make a real estate loan less than $50,000. Well, that seems small. The average loan size of residential loans in our portfolio, $33,000. There would not be anybody in our portfolio that would even qualify to apply for a residential loan. I understand that is not a jumbo loan in your line of work, but at our bank that is a house loan. That is a typical house loan. We have to continue to serve that market as best we can, but we have to figure out a way that we can do it within the regulatory constraints, and that is the challenge we are not meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. I am hearing this from other communities as well. Who is going to issue the home mortgage in these situations? I know many of the folks in the Kansas Bankers Association, in Oklahoma as well, are exiting the marketplace. Mr. Stanley is worried about online and some of these other entities, but what are the other options you have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. There are not a lot of options because our customers do not fit the model. They do not always have a W-2 that allows them to get paid once a month, and it is an easy way to figure their income. They have farm income. They have Schedule Fs, it does not fit the box. The loans that we wind up with are the ones that do not have access, cannot get access to those other markets. As a result, they have limited access to credit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Thank you, Mr. Hanes.    Mr. Beverage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. If I might add to that just a moment, Mr. Chairman, as I said earlier, banks are fairly resilient and try to figure out a way to meet their customers' needs. One of the things that has happened in Oklahoma is that our Bankers Bank has created an opportunity for referrals to Oklahoma City for consideration of those rural mortgages, because they do a lot of them, and they are able to withstand the litigation and regulatory risk that a much smaller bank cannot. In addition, one bank family has created a mortgage business that they offer, but since you are giving it up to your competitor, you might not get quite as many referrals to that instance.    My point is that with that referral also goes access to the community bank, and it is that relationship that is at risk here. It is that relationship, that reliability, the trust, the bond of trust that a banker like Shan has with his customers. A community bank is just simply so much more than a bank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Does Dodd-Frank understand or take that into account at all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. Some of the language does, but in the real world, no. The answer is based on the reality that the mentality is one size fits all.    A friend of mine had a $15 million bank. Very, very small. 3-1/2 employees. He had to do the same thing that JPMorgan Chase does. He made cattle loans and he made wheat loans. That is it, he did not do anything else. He did not have any derivatives. I mean, I am not sure he could spell derivative. Nevertheless, he was just a simple community bank in a simple little town of about 250 people. He just sold because he could not deal with it anymore. He is not the only one that is going to do that, and that is part of the issue.    My question to you, Mr. Chairman, is if rural community banks go away, who is going to finance the business of food production?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. That is a worry I have as well, as a farmer and a resident of small town America in western Kansas. Thank you.    I next recognize Representative Chu for her questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Thank you. Mr. Stanley, low income and minority neighborhoods were devastated by predatory mortgage lending in the years leading up to the housing crisis. Do you think these communities are better off today with the ability to repay in qualified mortgage rules that were enacted under Dodd-Frank?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. Yes, I do. One thing we saw prior to the crisis was that people with equity in their homes were being targeted for exploitative loans that they could not pay back, at which point the bank would seize the collateral and perhaps profit on a loan that never should have been made. I do think that the QM and the Ability-to-Repay rules have made a critical difference in a lot of areas across America and will make a critical difference in addressing that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. While small financial institutions are particularly critical of these rules, how has the CFPB, the Consumer Financial Protection Bureau, specifically tailored the rules to account for the relationship banking model of small institutions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. The CFPB has made a lot of efforts to do that. One thing we have heard several times from the other witnesses is the desire to exempt on portfolio loans, loans that are held in portfolio from regulation. That can make sense for a bank that truly has a relationship lending model, and the CFPB has, in fact, exempted loans held in portfolio from many of the requirements under the new mortgage rules. It has been very responsive to that.    One thing that we see here in Washington, D.C., is that when you actually look at legislation that would roll back parts of Dodd-Frank and would do things like exempt loans held on portfolio, you see it does not just apply to small rural banks. It does not just apply to community banks. It applies across the board to large regional banks. Frankly, the reason that legislation draws fire from organizations like Americans for Financial Reform, from proponents of reform, is that it is not limited to the kinds of banks that we are talking about here today. I think that there is space both with regulators, and even possibly in Congress on a bipartisan basis, for legislation that is truly targeted at the kind of small rural banks we are talking about today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Yes, Mr. Beverage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. Just to add something to what Mr. Stanley said about the CFPB and their willingness to accommodate some of these issues, he is correct. But, it has taken a while to get there. One of the things that we have done is that we have invited CFPB employees to come to Oklahoma. Two of them have taken us up on that, and I have taken them to small rural banks to show them how they work. I think that has had an impact as it enables the CFPB experts to understand the differences between a $40 million bank in Allen, Oklahoma, and Bank of America. I think that is important. But Mr. Stanley is right; it is getting better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Thank you. I do appreciate that greatly.    Dr. Stanley, the CFPB is required to carry out extensive analysis before issuing regulations that will impact smaller institutions. As you know, a number of changes were made to accommodate small, rural lenders under CFPB's mortgage rules. Do you think the small creditor exemption allows community banks to continue making the mortgages that are the best for the customers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. The small creditor exemption does include a lot of additional flexibility on things like balloon payments, escrow requirements, debt-to-income ratios, and these kind of things. That is the flexibility that we need to see in small rural areas. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. We have heard on many occasions that Dodd-Frank is the reason for many of the problems facing community banks. Can you explain how the Dodd-Frank Act can actually do the opposite and help level the playing field with their larger multinational competitors?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. Yes. What we saw prior to the crisis was large banks gaming the system in a lot of ways. They would use complex international models to claim that their assets were less risky than the assets held by smaller banks, and they would use that to hold less capital and borrow more, be overleveraged. And Dodd-Frank has taken a lot of steps to even that. I think the CFPBs' jurisdiction over nonbanks is also very significant in terms of leveling the playing field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Can you elaborate on your testimony regarding the issue of the declining number of community banks and the role of the FDIC's s supervisorial practices?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. Yes. I think there is no question that the FDIC cracked down as a supervisor on a lot of bank risks in the parade around the crisis. I think a lot of that was justified because there were a lot of banks that had made loans in the commercial real estate space that had valuations that were inflated. As the economy was damaged, some of those risks were excessive. We saw a lot of banks failing, and the FDIC was concerned about that. They did crack down. I think there are issues and questions. They also cracked down, as one of the witnesses mentioned, on the opening of new banks and put in new requirements because they saw a lot of newer banks fail during the crisis. That is something that could be reexamined and thought about in terms of how they have done that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. CHU. Thank you. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Next, I recognize Representative Trent Kelly for questions.</t>
+  </si>
+  <si>
+    <t>412673</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Thank you, Mr. Chairman, and Ranking Member. Thank you, witnesses, for being here.    Community banks are very important. I am from Mississippi, in a rural area with a lot of manufacturing, and a lot of agriculture. Quite frankly, it used to be the post office was the center of gravity for most small communities. The post office has consolidated, so now you have a town because you have a community bank. When you lose that bank, you lose the town. It is not just the banking. It is the guy who coaches softball or kids' baseball with you. It is the guy who goes to church with you on Sunday and sits by the pew. Your banker in those small communities is much more than your banker, and I understand that.    Unfortunately, based on your testimonies here today, it is not just Dodd-Frank. I can tell you my bankers do not have the same view as Mr. Stanley about Dodd-Frank and the impact it has on small banks. I can tell you they have talked to me again and again. I can tell you that the regulations are five binders this thick that they have to comply with, and they do not get paid for compliance. They have to comply with that, and they do not have the expertise. The net effect of that is a cost to the consumer, it has to be sucked up by the consumer because it is a nonrevenue-generating process.    Based on that, what is the impact that Dodd-Frank and other regulations have on the consumer and their financial ability to get along? Mr. Hanes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. I appreciate the question because that is exactly why I am here. That has been the big challenge. As I testified earlier, it used to be a source of pride within our little community bank. When we would do audits, or something internally, we would use it as a cross-training opportunity. We would grab somebody that might be from the other side of the bank and have them audit a loan side, or have a loan side audit an operations side. It was a way we could educate, we could cross train, we could bring that next level of leaders into the bank. Because they have gotten so thick, so heavy, and frankly, they are ever-changing, we cannot do that anymore. We do not have the expertise. We cannot have the expertise in our little 20-employee shop. What we have had to do is outsource to outside firms that come in for a period of a week or a few days and do those audits. Well, that comes at a cost. In our respect, we are paying more than a full-time employee's salary to outside firms to come in and do audits that we used to be able to do ourselves. I do not have a problem doing the audits. I do not have a problem following the regs, but they have gotten so large, so cumbersome, and frankly, they seem to change and we cannot do that anymore. The effects one less employee, one less teller serving our customers, our customers do not get as good a service, one less job in the community. You are right, we are the t-ball coach and the swim coach and the basketball coach. It is one less job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Let me follow up on that a little bit because my community seems like it is a lot like yours in Elkhart. A lot of my loans are not $50,000, and a lot of times they are for homes because the state prices are much better in rural areas. You can get a lot more house for a lot less money. It is also because of the same economic things where you do not have the steady W-2 necessarily. What impact does it have for those $50,000 or less loans, for folks that are not going to be able to get that money anywhere, which means they do not have a house and those things. Can you expand on that just a little bit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. Sure. Thank you, I appreciate that.    The biggest house loan in town probably would struggle to get to six digits. We do not have that large of a housing market. The largest number of people looking for a house loan do not want, do not need, and would not ask for a loan in six digits. They are looking for that $50,000 to $60,000, that $40,000 house to get them started. The secondary market is not an option because they simply will not even take an application if it is under $50,000 because they have determined anything below that is not profitable for them. So, their only option is their local community bank, and the majority of the banks around me do not make residential real estate loans anymore. As a result of that, they have far less access to credit than they would have had before, and it has put them at a disadvantage both now and for the long term. They cannot own a house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Mr. Chairman, if I can, I will let Mr. Beverage comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. I wanted to add to what Shan said. The primary impact on consumers is that it increases their costs. In a rural area, you simply do not have a pool of compliance officers who are knowledgeable about everything that is going on and everything that is required of a bank today. You do not have any choices regardless of what you would pay them, so you have to outsource. You have to use the association, or a program that we would sponsor, or your own private expert to help you get through what the OCC has told us is the principal issue for examination s. Compliance is one. Cyber security is two. Credit is three. That is important to understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. My time is expired. I yield back, Mr. Chairman, thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Thank you.    Next, I recognize Representative Luetkemeyer, Vice Chairman of the Committee. Welcome to the Subcommittee.</t>
+  </si>
+  <si>
+    <t>412292</t>
+  </si>
+  <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Thank you, Mr. Chairman. Glad to be with you.    I also serve on the Financial Services Committee, and so we have been working on some Dodd-Frank issues and some Dodd-Frank reform. We have heard a lot of testimony. Let me read you a few statistics. Before Dodd-Frank became law, 75 percent of banks offered free checking; now only 37 percent at the end of 2015. Dodd-Frank fueled a 21 percent surge in checking fees, 15 percent fewer credit card accounts since 2008 at a cost now of more than 200 basis points more than what they had. 73 percent of community banks report regulatory burdens are preventing them from making residential loans. We have heard that testimony. One last number here. The cost of the smallest commercial industrial loans has risen at least 10 percent from the pre-crisis average.    I can tell you, I am from Missouri, at the end of 2015, we had 44 banks that were $50 million or less. Those are little bitty guys. Remember, we are talking about small, rural communities, and that is probably the only bank in town, like probably yours is, Mr. Hanes, and those guys, out of 44, 26 lost money last year.    FDIC did a study back in 2013. It said within the next 5 years, any bank $250 million or less is probably going to go out of business. Not because they are bad banks, not because of the economy, but because the rules and regulations that are coming are going to force them to consolidate, and Dodd-Frank is the culprit. Dodd-Frank created all of this group of regulations that is out there.    Mr. Hanes, you talked a minute ago about QM rules. QM, at your size, you are supposed to be exempt from it; right? But, if you want to sell a mortgage to the secondary market, do you have to comply with it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. Yes, we do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. So even hough you were exempted, you still have to comply. These rules roll downhill, do they not?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. That is the part I would like to say, Ms. Chu. We were supposed to be exempted from a lot of Dodd-Frank and that threshold. But what happened, whether intentionally or probably unintentionally, was the trickle-down effect, exactly what we are talking about. What is a best practice for Bank of America, the examiners see that and they see that is a nice stress test, that is a nice little study, why do you guys not do that, too? It trickles down to where, all of a sudden, we are doing that same thing as Bank of America. The big banks, they might have a team, a department, a program that they developed to handle that, we do not. We have got Excel. We have to come up with something that is going to work. That trickle-down effect is what we were not exempted from. I agree that is a challenge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. I have another question for you, Mr. Beverage. I have a question with regards to Dodd-Frank, we are losing one community bank a day across the country right now. Dodd-Frank was supposed to be the cure all here. It was supposed to keep the big guys under control, but I believe--let me make this statement, and Mr. Beverage, I will appreciate your comment on it--I believe Dodd-Frank has caused the big banks to get bigger and put the pressure on the small banks to go out of business and merge with them. Would that be a fair statement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. Yes, sir. It does not tell the whole story, but it is certainly relevant.    One of the things that I wanted to add to what Shan said, and in response to what Mr. Stanley testified about, is the exemption that banks under $10 billion are supposed to have from the CFPB. They do have exemption from direct examination authority, although there is ride-along authority, and that is a different issue, but they are not exempt from the rules and regulations that the CFPB has revised and imposed. They still have to follow those. The primary federal banking regulator is then the one that examines for compliance. In smaller banks, that is a cost, that does not bring a dime to the bottom line, which means less capital, and more importantly, less ability to lend to consumers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Okay, very quickly. My experience keep discussing this with bankers across the country of all different sizes, and I have asked this question of a lot of them and they say anytime, because of the increased costs of compliance and the complexity of it. When you hire a loan officer, you have to hire one compliance officer. When you look at these small banks, when you hire a loan officer, the compliance officer does not make you any money. You have to spread those costs out over your bank, and you reach a point at which the rubber band breaks and then you have to do something different. This is where they are.    I think I could go on all day here but I see my time is about out, but I appreciate you gentlemen's testimony this morning, and I think that small banks make loans to small businesses. That was the testimony in this Committee not too long ago, and I think that we need to make sure that we keep the banks in business so the small businesses have an access to credit ability. Without that, small business communities dry up, and whenever rural America goes away it hurts the ability to produce food and produce all the rest of the things this country relies on.    Thank you very much for your testimony today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. I appreciate those questions, I will note Mr. Hanes has come a long way and I would like to ask him another question. I think you drove 100-plus miles to an airport, then took a connection, two of them to get here. You have come a long way. One other subject you did bring up, Shan, is that you thought it an unfair playing field in the particular area of agriculture, which is the bread and butter of your bank, it is hard to compete. Can you describe that a little bit more and what would you suggest as a way to level that playing field?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. I believe there are several ways. I believe you are referring to Farm Credit Services and their tax-exempt status on real estate loans. They currently have a tax rate of about 4 percent. If you compare that to my 38 percent bracket, that is a huge, unlevel playing field. There are several ideas that I would like to consider. The biggest and the most obvious is they do not pay income tax on income earned from interest on real estate loans. Give us that same opportunity. I do not mind competing with anybody, that is what made America great. But let us compete on a level playing field and do not let me start 34 percentage points behind them on a tax rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. I appreciate that.    I want to follow up with Mr. Stanley, in trying to understand your perspective of what is occurring here, and I do not know if you have ever been in a small town or a community bank we are talking about, looked at that, but frankly, Mr. Stanley, I do not know how they are able to compete with the Bank of America. The regulatory or the legal changes coming out hopefully at a Financial Services Committee, Bank of America does not want the changes. They do not want to change Dodd-Frank. They like the setup. As I understand, they are opposed to making changes. They found out how to game the system. But when you have Mr. Hanes and other banks across western Kansas, I think we all agree we want consumers to have more options, not fewer of them. When I hear from community banks that they are saying any loan under $100,000, and there are very few of those, are losers--they are going to lose money on them, and the Feds do not want them to do it anyway--they are left with some of the predatory lenders you are talking about. Bank of America is not going to come to Elkhart, Kansas. I guarantee you that. They have no desire. What they want to do is maybe buy up your bank. I do not know what they would want to do, I think they would just want to ignore that. I am just trying to understand from the perspective and the group you represent, which in inner cities I think you saw those predatory practices, but how does that apply to a small rural town if they are going to have no options when we are done with Dodd-Frank? I open it up to you, Mr. Stanley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. I think, first of all, you are going to see a lot of large financial institutions that end up supporting the package that comes out of Chairman Hensarling. I think that there is enormous diversity in the American banking system. We have 6,500 banks across all different sizes of communities. What we are very focused on and concerned about is that any changes to tailor these regulations, and there have been changes made both at the regulatory level and in the Dodd-Frank statute, do not become loopholes that can then be used by larger banks or can be used in rent-a-charter situations where somebody gets a bank charter and then sells stuff out into the secondary market that does not meet certain kinds of standards.    One thing I see with a lot of the legislation that comes out is it is not limited to the kinds of banks that are in Elkhart, Kansas. It is not limited to $100 million banks, $250 million banks. It does open the door to either banks that are in that $50 to $500 billion space, the very large regional banks that are among the largest couple dozen banks in the country, or even to the top six or seven global banks that dominate Wall Street. I think that there is space, there has been space in the Senate. Actually, there was a package passed for community banks that was limited to community banks, so I think there is bipartisan space for legislation that is very targeted and crafted to the kinds of banks that you are talking about in Elkhart, Kansas, but we do not often see that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Do you think they represent any threat to the economic system? Why are they being punished by these regulations at all? I mean, we have experts. They spent hours and days and weeks and months and years of putting it together, and the other day Mr. Hanes comes in and says most of my competitors are leaving the marketplace. The big city said, well, that is just too bad you cannot get a home mortgage in Elkhart, Kansas. That is one of the costs of taking care of the big banks. But I agree with Mr. Luetkemeyer. The end result is they are too big to fail and too small to succeed, and I think that is happening in this arena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. Would you like me to respond?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Please.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. STANLEY. I think there are a couple things. First of all, with respect to consumer protection, if something happens that damages a consumer, it may not matter to that consumer whether that happened at the hands of a small bank or a large bank. I think the vast majority of cases, there is no intent to harm consumers, some of these rules that we are talking about--overdraft fees, things like that, the CARD act that affected credit cards. That probably does not affect you guys much. But, overdraft fees were a source of revenue for small banks. There were abuses in terms of overdraft fees and there were consumer protection things that were done to address that. Interchange fees. That is something there were complaints about from small businesses, but small banks had issues and problems with the regulatory changes that were made for interchange fees. That is one set of things on these consumer protection things.    I think in terms of prudential protections, we do have to remember that even if you do not threaten the national global financial system, you are dealing with insured deposits. There is a backstop, a government backstop behind those deposits, so there is an interest by the FDIC in prudential risk regulation as long as those insured deposits are there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. Mr. Stanley, I appreciate that, and I will note I do not know of a single bank in the western half of the State of Kansas that failed in this situation. They get to take on all the regulations, so I am not worried so much about consumer protection; I am worried that they will not have any more choices. We will probably be sitting here in 3 or 4 years saying gosh darn it, what are we going to do to make sure they can get a loan in Elkhart, Kansas? We are about at the end of that stick.    I am going to ask Ms. Chu or Mr. Luetkemeyer, I am being a little flexible here, if you have any follow-up questions.    Seeing none, or if you had another round of questions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. I have a couple more here.    Mr. Beverage, we have been discussing a little bit about new banks being chartered. There have only been, what, two in the last 5 years, I think?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. Maybe three.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Maybe three? You know, if you are an investor and you go out here and you see the numbers we have been throwing around here today, especially small banks, if you are an investor, why would you want to invest in a business like this where you are going to get regulation from the top down, and more of it when the CFPB is just out of control with the TRID rule, the QM rule that basically runs real estate mortgages out of existence in small communities? If you are a new bank trying to get started, what are you going to make loans on? Can you give me some insight? I do not see why an investor would go in and try to buy, start a new bank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BEVERAGE. In this environment, neither do I. I would advise against it until we get some changes that will help community banks serve consumers in ways that do not jeopardize them. I just cannot help but say this. Community bankers do not get up in the morning thinking about how they can screw their customers. They get up in the morning thinking about how they can take care of them because those customers are vital to the survival of that community. When a bank makes a loan, basically, there are two questions. You know this. One, can you and will you repay it? If all of that works, then the bank wins, the customer wins, and the community wins because you get jobs, you get economic involvement, you get economic activity. These people grow up together, for heaven's sake. They know everybody. They have a list of things that they can no longer do because they are afraid of fair lending allegations. They are afraid if I screw up on an appraisal or on a valuation, or if I do not dot an I, or cross a T properly, I am going to get sued. Now, rightly or wrongly, that is a fear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. One of the problems with the QM rule is that by saying it is a qualified mortgage means it is a qualified mortgage, inferring that it is a preferred mortgage. If it is a nonqualified mortgage, they are by inference saying there must be some additional risk there. There must be a problem here. It opens you up as a banker to a lot of liability exposure even though it may not be. Just the inference it is a nonqualified loan, by differentiating between the two, suddenly now you are put in a position to decide is there a liability risk that I have got to take here by making this kind of a loan, a nonportfolio loan? This is the predicament that banks are in, and this is why you wind up not making real estate loans and getting out of the business because you see the liability situation sit in front of you, like I cannot take this risk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Mr. Hanes, I see you have been anxious to jump in here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HANES. Sorry about that.    Number one, as I said earlier, we are now making a compliance decision, not a credit decision--when we look at a loan--and that is wrong. That is not what we are built to do. That is not what we should be doing, but we are making a compliance decision. Are we going to make this loan? Is this one that we are not going to get written up for later? Is this one that we are not going to have to redisclose everything because we got something on a wrong line? It is a compliance decision to not make a loan versus a credit decision.    I would like to follow up on your original comment there, I had an opportunity in 2011 to put a holding company together to buy the local bank, a great source of pride and a great opportunity. I have actually gone down that exact path. To follow up on what Mr. Stanley said, community banks have become profitable in spite of Dodd-Frank; definitely not because of Dodd-Frank. We continue to work around and with those rules. The reason you invest in the local small bank, I can tell you is because you want the bank there. You do not want it being sold. You do not want it closed. The group that we put together, they grew up there. They want their local bank there. They grew up knowing that that was their bank and that was where their kids banked, and those kids are now customers. They have moved on to California or wherever, and they are still our customers. The reason you get investors to invest is because they want their local bank and they want to be a part of their local bank. We are not getting investors from outside; we are getting investors from down the street and across the street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Just to show you, I did not bring it with me this morning, but I have a sheet at home that details how you go through a real estate mortgage. There are 247 things on this sheet of paper here that you go down and you check a box. Okay, it is this size, so you go here. Then I got this kind of collateral, so you go here. It is a sole proprietorship or it is a husband and wife, so you go here. There are 247 ways you can get tripped up when you make a loan. A lot of that is on the CFPB. That is their problem.    QM, CFPB's own sheet is like this. You take two sheets and you put them together like this, it is like a Rubik's cube. You go through here, you go out here, you go here, and then you wind up going on this one. It is unbelievable, and you wonder why banks get out of lending. You wonder why they are getting exposed to this. You wonder why the costs of consumers go up. Somebody has to pay for this extra compliance cost when you have one loan officer for one compliance officer.    Thank you, gentlemen, for being here today. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HUELSKAMP. I would like to thank all of our witnesses for their participation today. It is never easy to take time out of your busy schedules and to come and talk with us, but you help us understand the unique impact that overregulation can have on our rural communities. All too often it is our consumers, our small businesses, farms and ranches, and entrepreneurs that ultimately feel the burden. Here at the Committee, we remain dedicated to working to ensure that small businesses are allowed to grow, thrive, and provide economic opportunities to the community.    I ask unanimous consent that members have 5 days to submit statements and supporting materials for the record.    Without objection, so ordered.    This hearing is adjourned.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +664,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +689,2077 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s"/>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
